--- a/csvToJson.xlsx
+++ b/csvToJson.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penpa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Emily Pet Sitting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1266D00B-B463-4731-A806-1A93CF40C9C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1911A12F-745C-4B1F-9127-8F74478D39A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2025" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{E3987E85-8EF4-4ED2-BF36-311A3C5FEF0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3987E85-8EF4-4ED2-BF36-311A3C5FEF0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,52 +31,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>Minxie</t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>Calico</t>
-  </si>
-  <si>
-    <t>Dog</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Star Power</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">NAME </t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>FULL DAY</t>
+  </si>
+  <si>
+    <t>Halloween</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>E Birthday</t>
+  </si>
+  <si>
+    <t>M Birthday</t>
+  </si>
+  <si>
+    <t>A Birthday</t>
+  </si>
+  <si>
+    <t>K Birthday</t>
+  </si>
+  <si>
+    <t>T Birthday</t>
+  </si>
+  <si>
+    <t>D Birthday</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>03/24/2019</t>
+  </si>
+  <si>
+    <t>02/10/2019</t>
+  </si>
+  <si>
+    <t>02/26/2019</t>
+  </si>
+  <si>
+    <t>08/05/2019</t>
+  </si>
+  <si>
+    <t>08/25/2019</t>
+  </si>
+  <si>
+    <t>11/24/2019</t>
+  </si>
+  <si>
+    <t>12/25/2019</t>
+  </si>
+  <si>
+    <t>10/31/2019</t>
+  </si>
+  <si>
+    <t>07/16/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -106,7 +137,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,59 +452,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C24366-02F5-4721-AF26-A4CCCEDEDFE1}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
